--- a/开发进度.xlsx
+++ b/开发进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可开团商品陈列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加入已有的团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地址管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>圈子首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +86,6 @@
   </si>
   <si>
     <t>我的佣金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,19 +105,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格确认记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拼购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货架上的商品显示佣金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +125,63 @@
     <t>本功能主要用于佣金结算。
 1、展示订单、佣金相关的规则说明
 2、按状态展示订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、与普通商品不共存
+2、支持添加到购物车
+3、支持立即秒杀（购买）
+4、如果支付取消或者支付失败，生成订单，状态为待支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者首页
+【消费者登录后默认页面】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈长小铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈长精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、展示圈长头像、昵称、个性签名
+2、展示圈长小铺的普通商品、秒杀商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、展示圈长头像、昵称
+2、展示圈长的一句话推荐信息
+2、展示圈长小的精选商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈长首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼购祥页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、支持组团购买
+2、支持开团
+3、支持普通购买（单独购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼购商品陈列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、与秒杀商品不共存
+2、支持添加到购物车
+3、支持立即购买
+4、如果支付取消或者支付失败，生成订单，状态为待支付
+注：如果该商品有拼购计划，点击后进入拼购祥页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,12 +292,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +308,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,441 +622,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H41"/>
+  <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="35.125" customWidth="1"/>
     <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.125" customWidth="1"/>
-    <col min="7" max="8" width="24.625" customWidth="1"/>
+    <col min="6" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C33:C36"/>
+  <mergeCells count="6">
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开发进度.xlsx
+++ b/开发进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="App端" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,12 +184,158 @@
 注：如果该商品有拼购计划，点击后进入拼购祥页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>供应商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称；（名称需唯一）
+供应商地址；
+生效标记；（生效、失效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面录入信息：
+供应商名称；（名称需唯一）
+供应商地址；
+后台自动填写信息：
+操作员ID；
+创建时间；
+生效标记；（默认为生效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>列表字段：
+名称、地址信息、创建时间；（按名称排序）
+查询字段：
+名称
+是否支持分页：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（最后做）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+是
+公共快捷功能：
+添加、生效/失效（支持多选）
+记录级快捷功能：
+生效/失效、编辑
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用Tab区分显示（生效、已失效）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示详细信息：
+名称、地址信息、创建时间、创建人姓名
+提供编辑按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +354,32 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -300,6 +472,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,12 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,58 +829,58 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
@@ -717,318 +889,318 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1047,13 +1219,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/开发进度.xlsx
+++ b/开发进度.xlsx
@@ -323,11 +323,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品分类管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,7 +1222,7 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1312,7 +1312,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1322,7 +1322,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>

--- a/开发进度.xlsx
+++ b/开发进度.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="App端" sheetId="1" r:id="rId1"/>
     <sheet name="Web管理端" sheetId="2" r:id="rId2"/>
+    <sheet name="后台功能" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,11 +111,6 @@
   </si>
   <si>
     <t>拼购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、展示粉丝规则说明
-2、展示有效粉丝（我的粉丝）、已失效粉丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +324,137 @@
   </si>
   <si>
     <t>品类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已上架商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询未上架商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、展示粉丝规则说明
+2、展示有效粉丝（我的粉丝）、已失效粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改粉丝信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝列表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过圈长分享的链接购买，可以成为该圈子的粉丝；
+如果用户当前是其他圈长的粉丝，则不能成为新圈子的粉丝；
+粉丝的有效期是30天；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询参数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置参数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统参数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持在表格中即时编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于控制行为权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只支持修改商品数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持批量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:G42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -851,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -859,13 +986,13 @@
     <row r="6" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -874,10 +1001,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -887,7 +1014,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -897,11 +1024,11 @@
     <row r="9" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1037,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1046,10 +1173,10 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1219,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1257,16 +1384,16 @@
     </row>
     <row r="3" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1275,10 +1402,10 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1287,10 +1414,10 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1299,20 +1426,20 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1322,7 +1449,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1331,7 +1458,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
@@ -1357,7 +1484,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
@@ -1375,7 +1502,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
@@ -1417,7 +1544,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
@@ -1434,9 +1561,15 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1444,23 +1577,33 @@
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1490,8 +1633,12 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1499,7 +1646,9 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1507,7 +1656,9 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1515,11 +1666,95 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1531,4 +1766,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>